--- a/VQC R work/Data Sheets/PFAS_Rdata_1mg_BW.xlsx
+++ b/VQC R work/Data Sheets/PFAS_Rdata_1mg_BW.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28723"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C36C286-6BAA-42F2-B5C4-77CD36C421F2}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C3AD28F-7CC6-453C-854A-3C1739FBC8FD}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -75,6 +75,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -128,110 +143,6 @@
       </right>
       <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -240,20 +151,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,154 +492,142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="B1:I5"/>
+      <selection activeCell="H1" sqref="B1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="B1" s="1">
+    <row r="1" spans="1:8">
+      <c r="B1" s="2">
         <v>3920</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="3">
         <v>3921</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="3">
         <v>3922</v>
       </c>
       <c r="E1" s="3">
         <v>3923</v>
       </c>
-      <c r="F1" s="7">
+      <c r="F1" s="3">
         <v>3932</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1" s="3">
         <v>3933</v>
       </c>
-      <c r="H1" s="9">
+      <c r="H1" s="4">
         <v>3934</v>
       </c>
-      <c r="I1" s="12">
-        <v>3935</v>
-      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>33.299999999999997</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>39.1</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>37.4</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="5">
         <v>37.1</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>40.700000000000003</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="5">
         <v>32.5</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="5">
         <v>31.7</v>
       </c>
-      <c r="I2" s="4">
-        <v>38.1</v>
-      </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="1">
         <v>33.700000000000003</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="1">
         <v>38.200000000000003</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="1">
         <v>37.4</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="1">
         <v>37</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="1">
         <v>39.6</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="1">
         <v>31.9</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="1">
         <v>29.4</v>
       </c>
-      <c r="I3" s="5">
-        <v>37.200000000000003</v>
-      </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="1">
         <v>34.799999999999997</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="1">
         <v>40.6</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="1">
         <v>37.9</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="1">
         <v>37.6</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="1">
         <v>40.700000000000003</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="1">
         <v>32.6</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="1">
         <v>31.5</v>
       </c>
-      <c r="I4" s="5">
-        <v>38.200000000000003</v>
-      </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="1">
         <v>34</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="1">
         <v>39.200000000000003</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="1">
         <v>37.299999999999997</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="1">
         <v>36.799999999999997</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="1">
         <v>40.299999999999997</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="1">
         <v>32.1</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="1">
         <v>30.9</v>
-      </c>
-      <c r="I5" s="5">
-        <v>38.200000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/VQC R work/Data Sheets/PFAS_Rdata_1mg_BW.xlsx
+++ b/VQC R work/Data Sheets/PFAS_Rdata_1mg_BW.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28723"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C3AD28F-7CC6-453C-854A-3C1739FBC8FD}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://keckmedicine-my.sharepoint.com/personal/victoria_quonchow_med_usc_edu/Documents/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE4C489E-D47E-124E-8941-B9E580BE9731}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="14800" windowHeight="8020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,7 +54,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -492,18 +497,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="B1:H1"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2">
         <v>3920</v>
       </c>
@@ -525,8 +530,11 @@
       <c r="H1" s="4">
         <v>3934</v>
       </c>
+      <c r="I1">
+        <v>3935</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -551,8 +559,11 @@
       <c r="H2" s="5">
         <v>31.7</v>
       </c>
+      <c r="I2">
+        <v>38.1</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -577,8 +588,11 @@
       <c r="H3" s="1">
         <v>29.4</v>
       </c>
+      <c r="I3">
+        <v>37.200000000000003</v>
+      </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -603,8 +617,11 @@
       <c r="H4" s="1">
         <v>31.5</v>
       </c>
+      <c r="I4">
+        <v>38.200000000000003</v>
+      </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -628,6 +645,9 @@
       </c>
       <c r="H5" s="1">
         <v>30.9</v>
+      </c>
+      <c r="I5">
+        <v>38.200000000000003</v>
       </c>
     </row>
   </sheetData>
